--- a/results/mp/deberta/corona/confidence/168/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-0.15/avg_0.002_scores.xlsx
@@ -118,12 +118,12 @@
     <t>dear</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -148,13 +148,13 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>credit</t>
@@ -1438,25 +1438,25 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6753246753246753</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="N22">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1464,13 +1464,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1698,25 +1698,25 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.5304878048780488</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L32">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>154</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1724,25 +1724,25 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.5294117647058824</v>
+        <v>0.515625</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1750,25 +1750,25 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.515625</v>
+        <v>0.5117647058823529</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="M34">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="10:17">
